--- a/natmiOut/OldD4/LR-pairs_lrc2p/Cx3cl1-Cx3cr1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Cx3cl1-Cx3cr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Cx3cr1</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.48797285511773</v>
+        <v>10.36956766666667</v>
       </c>
       <c r="H2">
-        <v>9.48797285511773</v>
+        <v>31.108703</v>
       </c>
       <c r="I2">
-        <v>0.3067551096367577</v>
+        <v>0.3064094944964822</v>
       </c>
       <c r="J2">
-        <v>0.3067551096367577</v>
+        <v>0.3135816093320294</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>26.8776740430655</v>
+        <v>0.1625483333333333</v>
       </c>
       <c r="N2">
-        <v>26.8776740430655</v>
+        <v>0.487645</v>
       </c>
       <c r="O2">
-        <v>0.4059076107527253</v>
+        <v>0.002044723966017375</v>
       </c>
       <c r="P2">
-        <v>0.4059076107527253</v>
+        <v>0.002044723966017375</v>
       </c>
       <c r="Q2">
-        <v>255.0146417293079</v>
+        <v>1.685555941603889</v>
       </c>
       <c r="R2">
-        <v>255.0146417293079</v>
+        <v>15.170003474435</v>
       </c>
       <c r="S2">
-        <v>0.1245142336388466</v>
+        <v>0.0006265228368122261</v>
       </c>
       <c r="T2">
-        <v>0.1245142336388466</v>
+        <v>0.0006411878319034983</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,309 +587,929 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.48797285511773</v>
+        <v>10.36956766666667</v>
       </c>
       <c r="H3">
-        <v>9.48797285511773</v>
+        <v>31.108703</v>
       </c>
       <c r="I3">
-        <v>0.3067551096367577</v>
+        <v>0.3064094944964822</v>
       </c>
       <c r="J3">
-        <v>0.3067551096367577</v>
+        <v>0.3135816093320294</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>39.3385616989125</v>
+        <v>0.1869973333333333</v>
       </c>
       <c r="N3">
-        <v>39.3385616989125</v>
+        <v>0.5609919999999999</v>
       </c>
       <c r="O3">
-        <v>0.5940923892472748</v>
+        <v>0.002352272220865628</v>
       </c>
       <c r="P3">
-        <v>0.5940923892472748</v>
+        <v>0.002352272220865628</v>
       </c>
       <c r="Q3">
-        <v>373.2432055586558</v>
+        <v>1.939081501486222</v>
       </c>
       <c r="R3">
-        <v>373.2432055586558</v>
+        <v>17.451733513376</v>
       </c>
       <c r="S3">
-        <v>0.1822408759979111</v>
+        <v>0.0007207585421135546</v>
       </c>
       <c r="T3">
-        <v>0.1822408759979111</v>
+        <v>0.0007376293086060707</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.1710108583687</v>
+        <v>10.36956766666667</v>
       </c>
       <c r="H4">
-        <v>19.1710108583687</v>
+        <v>31.108703</v>
       </c>
       <c r="I4">
-        <v>0.6198168594605863</v>
+        <v>0.3064094944964822</v>
       </c>
       <c r="J4">
-        <v>0.6198168594605863</v>
+        <v>0.3135816093320294</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>26.8776740430655</v>
+        <v>37.99015499999999</v>
       </c>
       <c r="N4">
-        <v>26.8776740430655</v>
+        <v>113.970465</v>
       </c>
       <c r="O4">
-        <v>0.4059076107527253</v>
+        <v>0.4778848162159858</v>
       </c>
       <c r="P4">
-        <v>0.4059076107527253</v>
+        <v>0.4778848162159858</v>
       </c>
       <c r="Q4">
-        <v>515.2721809273032</v>
+        <v>393.9414829396549</v>
       </c>
       <c r="R4">
-        <v>515.2721809273032</v>
+        <v>3545.473346456895</v>
       </c>
       <c r="S4">
-        <v>0.2515883805279043</v>
+        <v>0.1464284449642845</v>
       </c>
       <c r="T4">
-        <v>0.2515883805279043</v>
+        <v>0.14985588974435</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.1710108583687</v>
+        <v>10.36956766666667</v>
       </c>
       <c r="H5">
-        <v>19.1710108583687</v>
+        <v>31.108703</v>
       </c>
       <c r="I5">
-        <v>0.6198168594605863</v>
+        <v>0.3064094944964822</v>
       </c>
       <c r="J5">
-        <v>0.6198168594605863</v>
+        <v>0.3135816093320294</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>39.3385616989125</v>
+        <v>41.15676733333333</v>
       </c>
       <c r="N5">
-        <v>39.3385616989125</v>
+        <v>123.470302</v>
       </c>
       <c r="O5">
-        <v>0.5940923892472748</v>
+        <v>0.5177181875971312</v>
       </c>
       <c r="P5">
-        <v>0.5940923892472748</v>
+        <v>0.5177181875971312</v>
       </c>
       <c r="Q5">
-        <v>754.1599934824586</v>
+        <v>426.7778838042562</v>
       </c>
       <c r="R5">
-        <v>754.1599934824586</v>
+        <v>3841.000954238306</v>
       </c>
       <c r="S5">
-        <v>0.3682284789326821</v>
+        <v>0.1586337681532719</v>
       </c>
       <c r="T5">
-        <v>0.3682284789326821</v>
+        <v>0.1623469024471699</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.27113792769131</v>
+        <v>20.94273533333333</v>
       </c>
       <c r="H6">
-        <v>2.27113792769131</v>
+        <v>62.82820599999999</v>
       </c>
       <c r="I6">
-        <v>0.07342803090265607</v>
+        <v>0.6188351484978608</v>
       </c>
       <c r="J6">
-        <v>0.07342803090265607</v>
+        <v>0.6333201981749051</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>26.8776740430655</v>
+        <v>0.1625483333333333</v>
       </c>
       <c r="N6">
-        <v>26.8776740430655</v>
+        <v>0.487645</v>
       </c>
       <c r="O6">
-        <v>0.4059076107527253</v>
+        <v>0.002044723966017375</v>
       </c>
       <c r="P6">
-        <v>0.4059076107527253</v>
+        <v>0.002044723966017375</v>
       </c>
       <c r="Q6">
-        <v>61.04290492733029</v>
+        <v>3.404206723874444</v>
       </c>
       <c r="R6">
-        <v>61.04290492733029</v>
+        <v>30.63786051487</v>
       </c>
       <c r="S6">
-        <v>0.0298049965859744</v>
+        <v>0.001265347059147497</v>
       </c>
       <c r="T6">
-        <v>0.0298049965859744</v>
+        <v>0.001294964987371102</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>20.94273533333333</v>
+      </c>
+      <c r="H7">
+        <v>62.82820599999999</v>
+      </c>
+      <c r="I7">
+        <v>0.6188351484978608</v>
+      </c>
+      <c r="J7">
+        <v>0.6333201981749051</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.1869973333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.5609919999999999</v>
+      </c>
+      <c r="O7">
+        <v>0.002352272220865628</v>
+      </c>
+      <c r="P7">
+        <v>0.002352272220865628</v>
+      </c>
+      <c r="Q7">
+        <v>3.91623566003911</v>
+      </c>
+      <c r="R7">
+        <v>35.24612094035199</v>
+      </c>
+      <c r="S7">
+        <v>0.001455668729106774</v>
+      </c>
+      <c r="T7">
+        <v>0.001489741509079944</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>20.94273533333333</v>
+      </c>
+      <c r="H8">
+        <v>62.82820599999999</v>
+      </c>
+      <c r="I8">
+        <v>0.6188351484978608</v>
+      </c>
+      <c r="J8">
+        <v>0.6333201981749051</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>37.99015499999999</v>
+      </c>
+      <c r="N8">
+        <v>113.970465</v>
+      </c>
+      <c r="O8">
+        <v>0.4778848162159858</v>
+      </c>
+      <c r="P8">
+        <v>0.4778848162159858</v>
+      </c>
+      <c r="Q8">
+        <v>795.6177614373098</v>
+      </c>
+      <c r="R8">
+        <v>7160.559852935789</v>
+      </c>
+      <c r="S8">
+        <v>0.2957319212078925</v>
+      </c>
+      <c r="T8">
+        <v>0.3026541065106862</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>20.94273533333333</v>
+      </c>
+      <c r="H9">
+        <v>62.82820599999999</v>
+      </c>
+      <c r="I9">
+        <v>0.6188351484978608</v>
+      </c>
+      <c r="J9">
+        <v>0.6333201981749051</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>41.15676733333333</v>
+      </c>
+      <c r="N9">
+        <v>123.470302</v>
+      </c>
+      <c r="O9">
+        <v>0.5177181875971312</v>
+      </c>
+      <c r="P9">
+        <v>0.5177181875971312</v>
+      </c>
+      <c r="Q9">
+        <v>861.9352854375791</v>
+      </c>
+      <c r="R9">
+        <v>7757.417568938212</v>
+      </c>
+      <c r="S9">
+        <v>0.320382211501714</v>
+      </c>
+      <c r="T9">
+        <v>0.3278813851677678</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.2078093333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.623428</v>
+      </c>
+      <c r="I10">
+        <v>0.006140540746264892</v>
+      </c>
+      <c r="J10">
+        <v>0.006284272138978229</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.1625483333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.487645</v>
+      </c>
+      <c r="O10">
+        <v>0.002044723966017375</v>
+      </c>
+      <c r="P10">
+        <v>0.002044723966017375</v>
+      </c>
+      <c r="Q10">
+        <v>0.03377906078444444</v>
+      </c>
+      <c r="R10">
+        <v>0.30401154706</v>
+      </c>
+      <c r="S10">
+        <v>1.255571082819404E-05</v>
+      </c>
+      <c r="T10">
+        <v>1.284960185154406E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.2078093333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.623428</v>
+      </c>
+      <c r="I11">
+        <v>0.006140540746264892</v>
+      </c>
+      <c r="J11">
+        <v>0.006284272138978229</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.1869973333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.5609919999999999</v>
+      </c>
+      <c r="O11">
+        <v>0.002352272220865628</v>
+      </c>
+      <c r="P11">
+        <v>0.002352272220865628</v>
+      </c>
+      <c r="Q11">
+        <v>0.0388597911751111</v>
+      </c>
+      <c r="R11">
+        <v>0.349738120576</v>
+      </c>
+      <c r="S11">
+        <v>1.44442234185324E-05</v>
+      </c>
+      <c r="T11">
+        <v>1.478231878087831E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.2078093333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.623428</v>
+      </c>
+      <c r="I12">
+        <v>0.006140540746264892</v>
+      </c>
+      <c r="J12">
+        <v>0.006284272138978229</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>37.99015499999999</v>
+      </c>
+      <c r="N12">
+        <v>113.970465</v>
+      </c>
+      <c r="O12">
+        <v>0.4778848162159858</v>
+      </c>
+      <c r="P12">
+        <v>0.4778848162159858</v>
+      </c>
+      <c r="Q12">
+        <v>7.894708783779998</v>
+      </c>
+      <c r="R12">
+        <v>71.05237905401999</v>
+      </c>
+      <c r="S12">
+        <v>0.00293447118599557</v>
+      </c>
+      <c r="T12">
+        <v>0.003003158236186851</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.2078093333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.623428</v>
+      </c>
+      <c r="I13">
+        <v>0.006140540746264892</v>
+      </c>
+      <c r="J13">
+        <v>0.006284272138978229</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>41.15676733333333</v>
+      </c>
+      <c r="N13">
+        <v>123.470302</v>
+      </c>
+      <c r="O13">
+        <v>0.5177181875971312</v>
+      </c>
+      <c r="P13">
+        <v>0.5177181875971312</v>
+      </c>
+      <c r="Q13">
+        <v>8.55276038169511</v>
+      </c>
+      <c r="R13">
+        <v>76.97484343525601</v>
+      </c>
+      <c r="S13">
+        <v>0.003179069626022595</v>
+      </c>
+      <c r="T13">
+        <v>0.003253481982158955</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.3220755</v>
+      </c>
+      <c r="H14">
+        <v>4.644151</v>
+      </c>
+      <c r="I14">
+        <v>0.06861481625939206</v>
+      </c>
+      <c r="J14">
+        <v>0.04681392035408721</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.1625483333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.487645</v>
+      </c>
+      <c r="O14">
+        <v>0.002044723966017375</v>
+      </c>
+      <c r="P14">
+        <v>0.002044723966017375</v>
+      </c>
+      <c r="Q14">
+        <v>0.3774495023991666</v>
+      </c>
+      <c r="R14">
+        <v>2.264697014395</v>
+      </c>
+      <c r="S14">
+        <v>0.0001402983592294576</v>
+      </c>
+      <c r="T14">
+        <v>9.572154489123072E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.3220755</v>
+      </c>
+      <c r="H15">
+        <v>4.644151</v>
+      </c>
+      <c r="I15">
+        <v>0.06861481625939206</v>
+      </c>
+      <c r="J15">
+        <v>0.04681392035408721</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.1869973333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.5609919999999999</v>
+      </c>
+      <c r="O15">
+        <v>0.002352272220865628</v>
+      </c>
+      <c r="P15">
+        <v>0.002352272220865628</v>
+      </c>
+      <c r="Q15">
+        <v>0.4342219262986666</v>
+      </c>
+      <c r="R15">
+        <v>2.605331557792</v>
+      </c>
+      <c r="S15">
+        <v>0.0001614007262267672</v>
+      </c>
+      <c r="T15">
+        <v>0.0001101190843987353</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.3220755</v>
+      </c>
+      <c r="H16">
+        <v>4.644151</v>
+      </c>
+      <c r="I16">
+        <v>0.06861481625939206</v>
+      </c>
+      <c r="J16">
+        <v>0.04681392035408721</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>37.99015499999999</v>
+      </c>
+      <c r="N16">
+        <v>113.970465</v>
+      </c>
+      <c r="O16">
+        <v>0.4778848162159858</v>
+      </c>
+      <c r="P16">
+        <v>0.4778848162159858</v>
+      </c>
+      <c r="Q16">
+        <v>88.21600816670248</v>
+      </c>
+      <c r="R16">
+        <v>529.2960490002149</v>
+      </c>
+      <c r="S16">
+        <v>0.03278997885781321</v>
+      </c>
+      <c r="T16">
+        <v>0.02237166172476276</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
         <v>26</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>2.27113792769131</v>
-      </c>
-      <c r="H7">
-        <v>2.27113792769131</v>
-      </c>
-      <c r="I7">
-        <v>0.07342803090265607</v>
-      </c>
-      <c r="J7">
-        <v>0.07342803090265607</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>39.3385616989125</v>
-      </c>
-      <c r="N7">
-        <v>39.3385616989125</v>
-      </c>
-      <c r="O7">
-        <v>0.5940923892472748</v>
-      </c>
-      <c r="P7">
-        <v>0.5940923892472748</v>
-      </c>
-      <c r="Q7">
-        <v>89.34329949522487</v>
-      </c>
-      <c r="R7">
-        <v>89.34329949522487</v>
-      </c>
-      <c r="S7">
-        <v>0.04362303431668167</v>
-      </c>
-      <c r="T7">
-        <v>0.04362303431668167</v>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.3220755</v>
+      </c>
+      <c r="H17">
+        <v>4.644151</v>
+      </c>
+      <c r="I17">
+        <v>0.06861481625939206</v>
+      </c>
+      <c r="J17">
+        <v>0.04681392035408721</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>41.15676733333333</v>
+      </c>
+      <c r="N17">
+        <v>123.470302</v>
+      </c>
+      <c r="O17">
+        <v>0.5177181875971312</v>
+      </c>
+      <c r="P17">
+        <v>0.5177181875971312</v>
+      </c>
+      <c r="Q17">
+        <v>95.56912108393367</v>
+      </c>
+      <c r="R17">
+        <v>573.414726503602</v>
+      </c>
+      <c r="S17">
+        <v>0.03552313831612262</v>
+      </c>
+      <c r="T17">
+        <v>0.02423641800003448</v>
       </c>
     </row>
   </sheetData>
